--- a/biology/Zoologie/Canon_de_Morgan/Canon_de_Morgan.xlsx
+++ b/biology/Zoologie/Canon_de_Morgan/Canon_de_Morgan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canon de Morgan est un principe de rigueur scientifique énoncé par Lloyd Morgan en 1894 :
-« Nous ne devons en aucun cas interpréter une action animale comme relevant de l'exercice de facultés de haut niveau, si celle-ci peut être interprétée comme relevant de l'exercice de facultés de niveau inférieur[trad 1],[1]. »
+« Nous ne devons en aucun cas interpréter une action animale comme relevant de l'exercice de facultés de haut niveau, si celle-ci peut être interprétée comme relevant de l'exercice de facultés de niveau inférieur[trad 1],. »
 Il concerne l'analyse comportementale animale et s'oppose au principe de charité qui s'applique aux humains. Le canon de Morgan est un principe de rigueur scientifique qui permet surtout d'éviter un biais d'anthropomorphisme. En effet, si le canon de Morgan n'est pas appliqué, un humain qui observe un comportement animal pourrait facilement attribuer une intention humaine à son action, ce qui fausserait son jugement.
 </t>
         </is>
